--- a/src/files/TraitImport/test_traits_maxMin.xlsx
+++ b/src/files/TraitImport/test_traits_maxMin.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw279\Documents\Testing\Cucumber\BI_Cucumber\TraitImportFiles\v0.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243/IdeaProjects/taf/src/files/TraitImport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E28B00-BFBF-3043-8CD2-8AD2F2B2646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>Estimation</t>
   </si>
@@ -214,13 +215,16 @@
   </si>
   <si>
     <t>MDesc Estimate/num/min/max</t>
+  </si>
+  <si>
+    <t>Term Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +249,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -321,12 +333,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,88 +623,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.62890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.62890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.20703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.05078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.05078125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="R1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -731,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -772,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -813,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -854,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -902,16 +918,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1.1000000000000001</v>
       </c>
@@ -925,7 +941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.2200000000000002</v>
       </c>
@@ -939,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3.3330000000000002</v>
       </c>
@@ -953,7 +969,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.4443999999999999</v>
       </c>
@@ -967,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.5555500000000002</v>
       </c>
@@ -981,7 +997,7 @@
         <v>5.5555399999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1095,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1148,12 +1164,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D74C1D9EC8A1042A5EF45985DF3E9E4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2000d971e1751a7db8d92151125d08a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa5be1c8-7296-4b7a-853c-c6802fcefdea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4a1f299a0d30015388c519f6ad441cc" ns3:_="">
     <xsd:import namespace="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
@@ -1331,6 +1341,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
   <ds:schemaRefs>
@@ -1340,22 +1356,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340A8394-9E0A-435F-BF61-25A36768AA02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1371,4 +1371,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>